--- a/backend/data/TestData.xlsx
+++ b/backend/data/TestData.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="66">
   <si>
     <t xml:space="preserve">Сладкий </t>
   </si>
@@ -80,18 +80,6 @@
     <t>Приторный</t>
   </si>
   <si>
-    <t>BlackBern</t>
-  </si>
-  <si>
-    <t>Mirinda</t>
-  </si>
-  <si>
-    <t>Basillic</t>
-  </si>
-  <si>
-    <t>Chupa Graper</t>
-  </si>
-  <si>
     <t>Haribon</t>
   </si>
   <si>
@@ -104,18 +92,12 @@
     <t>Blackberry lemonade</t>
   </si>
   <si>
-    <t>Limon shock</t>
-  </si>
-  <si>
     <t>Malibu</t>
   </si>
   <si>
     <t>Barberry shock</t>
   </si>
   <si>
-    <t>Tik tak</t>
-  </si>
-  <si>
     <t>Pear Lemonade</t>
   </si>
   <si>
@@ -137,18 +119,9 @@
     <t>Watermelon</t>
   </si>
   <si>
-    <t>Cherry garden</t>
-  </si>
-  <si>
-    <t>Kiwi stoner</t>
-  </si>
-  <si>
     <t>Asian lychee</t>
   </si>
   <si>
-    <t>Raspberries</t>
-  </si>
-  <si>
     <t>Cheesecake</t>
   </si>
   <si>
@@ -158,18 +131,6 @@
     <t>Crème brulee</t>
   </si>
   <si>
-    <t>Currant shock</t>
-  </si>
-  <si>
-    <t>Rising star</t>
-  </si>
-  <si>
-    <t>Cherry shock</t>
-  </si>
-  <si>
-    <t>Berry lemonade</t>
-  </si>
-  <si>
     <t>Elderberry shock</t>
   </si>
   <si>
@@ -179,9 +140,6 @@
     <t>Almond icecream</t>
   </si>
   <si>
-    <t>Red orange</t>
-  </si>
-  <si>
     <t>Juicy smoothie</t>
   </si>
   <si>
@@ -209,9 +167,6 @@
     <t>Melon halls</t>
   </si>
   <si>
-    <t>Something berry</t>
-  </si>
-  <si>
     <t>Something tropical</t>
   </si>
   <si>
@@ -224,18 +179,12 @@
     <t>Something sweet</t>
   </si>
   <si>
-    <t>Garnet</t>
-  </si>
-  <si>
     <t>Pineapple</t>
   </si>
   <si>
     <t>Strawberry coconut</t>
   </si>
   <si>
-    <t xml:space="preserve"> it's not black currant</t>
-  </si>
-  <si>
     <t>Real P.F.</t>
   </si>
   <si>
@@ -254,35 +203,32 @@
     <t>Sousep</t>
   </si>
   <si>
-    <t>Strawberry jam</t>
-  </si>
-  <si>
     <t>Ekzo mango</t>
   </si>
   <si>
-    <t>ekzo mango</t>
-  </si>
-  <si>
     <t>Green tea</t>
   </si>
   <si>
     <t>Ice baby</t>
   </si>
   <si>
-    <t>ice baby</t>
-  </si>
-  <si>
     <t>Papaya v obed</t>
   </si>
   <si>
     <t>Epic Yogurt</t>
+  </si>
+  <si>
+    <t>TestData</t>
+  </si>
+  <si>
+    <t>PENIS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -331,13 +277,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -375,7 +314,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -395,13 +334,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -690,8 +623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="U4" sqref="U4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -715,7 +648,7 @@
     <col min="18" max="18" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="19" max="20" width="16.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="43.28515625" style="2" customWidth="1"/>
+    <col min="22" max="22" width="21.140625" style="2" customWidth="1"/>
     <col min="23" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
@@ -775,7 +708,7 @@
         <v>17</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>18</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -799,7 +732,7 @@
       <c r="R2" s="3"/>
       <c r="U2" s="6"/>
       <c r="V2" s="2" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -821,8 +754,8 @@
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
-      <c r="V3" s="7" t="s">
-        <v>20</v>
+      <c r="V3" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -844,13 +777,13 @@
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
       <c r="R4" s="3"/>
-      <c r="V4" s="7" t="s">
-        <v>21</v>
+      <c r="V4" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -869,14 +802,14 @@
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
-      <c r="V5" s="7" t="s">
-        <v>22</v>
+      <c r="V5" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3"/>
       <c r="B6" s="5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -894,15 +827,15 @@
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
-      <c r="V6" s="7" t="s">
-        <v>23</v>
+      <c r="V6" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5"/>
       <c r="B7" s="3"/>
       <c r="C7" s="5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -919,13 +852,13 @@
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
-      <c r="V7" s="7" t="s">
-        <v>24</v>
+      <c r="V7" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="3"/>
@@ -944,8 +877,8 @@
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
-      <c r="V8" s="7" t="s">
-        <v>25</v>
+      <c r="V8" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -967,8 +900,8 @@
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
-      <c r="V9" s="7" t="s">
-        <v>26</v>
+      <c r="V9" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -990,18 +923,18 @@
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
       <c r="R10" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="V10" s="7" t="s">
-        <v>27</v>
+        <v>22</v>
+      </c>
+      <c r="V10" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -1019,8 +952,8 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-      <c r="V11" s="7" t="s">
-        <v>28</v>
+      <c r="V11" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -1042,15 +975,15 @@
       <c r="P12" s="5"/>
       <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
-      <c r="V12" s="7" t="s">
-        <v>29</v>
+      <c r="V12" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5"/>
       <c r="B13" s="3"/>
       <c r="C13" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -1067,17 +1000,17 @@
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
-      <c r="V13" s="7" t="s">
-        <v>30</v>
+      <c r="V13" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="5"/>
       <c r="B14" s="5" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
@@ -1094,13 +1027,13 @@
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
       <c r="R14" s="3"/>
-      <c r="V14" s="7" t="s">
-        <v>31</v>
+      <c r="V14" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -1119,23 +1052,23 @@
       <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
-      <c r="V15" s="7" t="s">
-        <v>32</v>
+      <c r="V15" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="5" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="5" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
@@ -1143,15 +1076,15 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="5" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-      <c r="V16" s="7" t="s">
-        <v>33</v>
+      <c r="V16" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -1165,7 +1098,7 @@
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
@@ -1175,14 +1108,14 @@
       <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
       <c r="R17" s="3"/>
-      <c r="V17" s="7" t="s">
-        <v>34</v>
+      <c r="V17" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5"/>
       <c r="B18" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -1200,13 +1133,13 @@
       <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
       <c r="R18" s="3"/>
-      <c r="V18" s="7" t="s">
-        <v>35</v>
+      <c r="V18" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -1225,8 +1158,8 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-      <c r="V19" s="7" t="s">
-        <v>36</v>
+      <c r="V19" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -1248,8 +1181,8 @@
       <c r="P20" s="3"/>
       <c r="Q20" s="3"/>
       <c r="R20" s="3"/>
-      <c r="V20" s="7" t="s">
-        <v>37</v>
+      <c r="V20" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -1271,8 +1204,8 @@
       <c r="P21" s="3"/>
       <c r="Q21" s="3"/>
       <c r="R21" s="3"/>
-      <c r="V21" s="7" t="s">
-        <v>38</v>
+      <c r="V21" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -1281,7 +1214,7 @@
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="5" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
@@ -1296,8 +1229,8 @@
       <c r="P22" s="3"/>
       <c r="Q22" s="3"/>
       <c r="R22" s="3"/>
-      <c r="V22" s="7" t="s">
-        <v>39</v>
+      <c r="V22" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -1319,8 +1252,8 @@
       <c r="P23" s="3"/>
       <c r="Q23" s="3"/>
       <c r="R23" s="3"/>
-      <c r="V23" s="7" t="s">
-        <v>40</v>
+      <c r="V23" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -1331,14 +1264,14 @@
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="5" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
       <c r="L24" s="5" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
@@ -1346,10 +1279,10 @@
       <c r="P24" s="3"/>
       <c r="Q24" s="3"/>
       <c r="R24" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="V24" s="7" t="s">
-        <v>41</v>
+        <v>32</v>
+      </c>
+      <c r="V24" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -1358,7 +1291,7 @@
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="5" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
@@ -1373,8 +1306,8 @@
       <c r="P25" s="3"/>
       <c r="Q25" s="3"/>
       <c r="R25" s="3"/>
-      <c r="V25" s="7" t="s">
-        <v>42</v>
+      <c r="V25" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -1385,14 +1318,14 @@
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
       <c r="G26" s="5" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
       <c r="L26" s="5" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
@@ -1400,10 +1333,10 @@
       <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
       <c r="R26" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="V26" s="7" t="s">
-        <v>43</v>
+        <v>34</v>
+      </c>
+      <c r="V26" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -1425,8 +1358,8 @@
       <c r="P27" s="3"/>
       <c r="Q27" s="3"/>
       <c r="R27" s="3"/>
-      <c r="V27" s="7" t="s">
-        <v>44</v>
+      <c r="V27" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -1448,8 +1381,8 @@
       <c r="P28" s="3"/>
       <c r="Q28" s="3"/>
       <c r="R28" s="3"/>
-      <c r="V28" s="7" t="s">
-        <v>45</v>
+      <c r="V28" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -1471,8 +1404,8 @@
       <c r="P29" s="3"/>
       <c r="Q29" s="3"/>
       <c r="R29" s="3"/>
-      <c r="V29" s="7" t="s">
-        <v>46</v>
+      <c r="V29" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -1494,8 +1427,8 @@
       <c r="P30" s="3"/>
       <c r="Q30" s="3"/>
       <c r="R30" s="3"/>
-      <c r="V30" s="7" t="s">
-        <v>47</v>
+      <c r="V30" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -1504,7 +1437,7 @@
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="5" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
@@ -1519,8 +1452,8 @@
       <c r="P31" s="3"/>
       <c r="Q31" s="3"/>
       <c r="R31" s="3"/>
-      <c r="V31" s="7" t="s">
-        <v>48</v>
+      <c r="V31" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -1540,12 +1473,12 @@
       <c r="N32" s="3"/>
       <c r="O32" s="3"/>
       <c r="P32" s="5" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="Q32" s="3"/>
       <c r="R32" s="3"/>
-      <c r="V32" s="7" t="s">
-        <v>49</v>
+      <c r="V32" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -1556,7 +1489,7 @@
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
       <c r="G33" s="5" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
@@ -1564,15 +1497,15 @@
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
       <c r="M33" s="5" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="N33" s="3"/>
       <c r="O33" s="3"/>
       <c r="P33" s="3"/>
       <c r="Q33" s="3"/>
       <c r="R33" s="3"/>
-      <c r="V33" s="7" t="s">
-        <v>50</v>
+      <c r="V33" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -1594,8 +1527,8 @@
       <c r="P34" s="3"/>
       <c r="Q34" s="3"/>
       <c r="R34" s="3"/>
-      <c r="V34" s="7" t="s">
-        <v>51</v>
+      <c r="V34" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -1606,7 +1539,7 @@
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
       <c r="G35" s="5" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
@@ -1619,14 +1552,14 @@
       <c r="P35" s="3"/>
       <c r="Q35" s="3"/>
       <c r="R35" s="3"/>
-      <c r="V35" s="7" t="s">
-        <v>52</v>
+      <c r="V35" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="36" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="5"/>
       <c r="B36" s="5" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -1644,21 +1577,21 @@
       <c r="P36" s="3"/>
       <c r="Q36" s="3"/>
       <c r="R36" s="3"/>
-      <c r="V36" s="7" t="s">
-        <v>53</v>
+      <c r="V36" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="37" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
       <c r="G37" s="5" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
@@ -1671,19 +1604,19 @@
       <c r="P37" s="3"/>
       <c r="Q37" s="3"/>
       <c r="R37" s="3"/>
-      <c r="V37" s="7" t="s">
-        <v>54</v>
+      <c r="V37" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="38" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="5" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
@@ -1700,13 +1633,13 @@
       <c r="P38" s="3"/>
       <c r="Q38" s="3"/>
       <c r="R38" s="3"/>
-      <c r="V38" s="7" t="s">
-        <v>55</v>
+      <c r="V38" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="39" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -1725,10 +1658,10 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="V39" s="7" t="s">
-        <v>56</v>
+        <v>42</v>
+      </c>
+      <c r="V39" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="40" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -1749,11 +1682,11 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="5" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="R40" s="3"/>
-      <c r="V40" s="7" t="s">
-        <v>57</v>
+      <c r="V40" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="41" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -1775,15 +1708,15 @@
       <c r="P41" s="3"/>
       <c r="Q41" s="3"/>
       <c r="R41" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="V41" s="7" t="s">
-        <v>58</v>
+        <v>44</v>
+      </c>
+      <c r="V41" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="42" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="5" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -1802,17 +1735,17 @@
       <c r="P42" s="3"/>
       <c r="Q42" s="3"/>
       <c r="R42" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="V42" s="7" t="s">
-        <v>59</v>
+        <v>45</v>
+      </c>
+      <c r="V42" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="43" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="5"/>
       <c r="B43" s="3"/>
       <c r="C43" s="5" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
@@ -1829,8 +1762,8 @@
       <c r="P43" s="3"/>
       <c r="Q43" s="3"/>
       <c r="R43" s="3"/>
-      <c r="V43" s="7" t="s">
-        <v>60</v>
+      <c r="V43" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="44" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -1852,16 +1785,16 @@
       <c r="P44" s="3"/>
       <c r="Q44" s="3"/>
       <c r="R44" s="3"/>
-      <c r="V44" s="7" t="s">
-        <v>61</v>
+      <c r="V44" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="45" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="5" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
@@ -1879,8 +1812,8 @@
       <c r="P45" s="3"/>
       <c r="Q45" s="3"/>
       <c r="R45" s="3"/>
-      <c r="V45" s="7" t="s">
-        <v>62</v>
+      <c r="V45" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="46" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -1888,7 +1821,7 @@
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
       <c r="D46" s="5" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
@@ -1903,11 +1836,11 @@
       <c r="O46" s="3"/>
       <c r="P46" s="3"/>
       <c r="Q46" s="5" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="R46" s="3"/>
-      <c r="V46" s="7" t="s">
-        <v>63</v>
+      <c r="V46" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="47" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -1916,36 +1849,36 @@
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
       <c r="E47" s="5" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="F47" s="3"/>
       <c r="G47" s="5" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
       <c r="K47" s="5" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="L47" s="5" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="M47" s="3"/>
       <c r="N47" s="5" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="O47" s="3"/>
       <c r="P47" s="3"/>
       <c r="Q47" s="3"/>
       <c r="R47" s="3"/>
-      <c r="V47" s="7" t="s">
-        <v>64</v>
+      <c r="V47" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="48" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="5" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -1964,7 +1897,7 @@
       <c r="P48" s="3"/>
       <c r="Q48" s="3"/>
       <c r="R48" s="3"/>
-      <c r="V48" s="7" t="s">
+      <c r="V48" s="2" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1987,16 +1920,16 @@
       <c r="P49" s="3"/>
       <c r="Q49" s="3"/>
       <c r="R49" s="3"/>
-      <c r="V49" s="7" t="s">
-        <v>66</v>
+      <c r="V49" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="50" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="5" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
@@ -2014,23 +1947,23 @@
       <c r="P50" s="3"/>
       <c r="Q50" s="3"/>
       <c r="R50" s="3"/>
-      <c r="V50" s="7" t="s">
-        <v>67</v>
+      <c r="V50" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="51" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="5"/>
       <c r="B51" s="3"/>
       <c r="C51" s="5" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="D51" s="3"/>
       <c r="E51" s="5" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="F51" s="3"/>
       <c r="G51" s="5" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="H51" s="3"/>
       <c r="I51" s="3"/>
@@ -2043,8 +1976,8 @@
       <c r="P51" s="3"/>
       <c r="Q51" s="3"/>
       <c r="R51" s="3"/>
-      <c r="V51" s="7" t="s">
-        <v>68</v>
+      <c r="V51" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="52" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -2066,13 +1999,13 @@
       <c r="P52" s="3"/>
       <c r="Q52" s="3"/>
       <c r="R52" s="3"/>
-      <c r="V52" s="7" t="s">
-        <v>69</v>
+      <c r="V52" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="53" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -2091,8 +2024,8 @@
       <c r="P53" s="3"/>
       <c r="Q53" s="3"/>
       <c r="R53" s="3"/>
-      <c r="V53" s="7" t="s">
-        <v>70</v>
+      <c r="V53" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="54" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -2111,13 +2044,13 @@
       <c r="M54" s="3"/>
       <c r="N54" s="3"/>
       <c r="O54" s="5" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="P54" s="3"/>
       <c r="Q54" s="3"/>
       <c r="R54" s="3"/>
-      <c r="V54" s="7" t="s">
-        <v>71</v>
+      <c r="V54" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="55" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -2132,41 +2065,41 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="5" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="5" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="O55" s="3"/>
       <c r="P55" s="5" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-      <c r="V55" s="7" t="s">
-        <v>72</v>
+      <c r="V55" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="56" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="8" t="s">
-        <v>73</v>
+      <c r="A56" s="7" t="s">
+        <v>56</v>
       </c>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
-      <c r="G56" s="8" t="s">
-        <v>73</v>
+      <c r="G56" s="7" t="s">
+        <v>56</v>
       </c>
       <c r="H56" s="3"/>
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-      <c r="L56" s="8" t="s">
-        <v>73</v>
+      <c r="L56" s="7" t="s">
+        <v>56</v>
       </c>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
@@ -2174,13 +2107,13 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-      <c r="V56" s="9" t="s">
-        <v>73</v>
+      <c r="V56" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="57" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="5" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -2199,22 +2132,22 @@
       <c r="P57" s="3"/>
       <c r="Q57" s="3"/>
       <c r="R57" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="V57" s="7" t="s">
-        <v>74</v>
+        <v>57</v>
+      </c>
+      <c r="V57" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="58" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="5" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="B58" s="3"/>
       <c r="C58" s="5" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
@@ -2230,8 +2163,8 @@
       <c r="P58" s="3"/>
       <c r="Q58" s="3"/>
       <c r="R58" s="3"/>
-      <c r="V58" s="7" t="s">
-        <v>75</v>
+      <c r="V58" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="59" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -2253,13 +2186,13 @@
       <c r="P59" s="3"/>
       <c r="Q59" s="3"/>
       <c r="R59" s="3"/>
-      <c r="V59" s="7" t="s">
-        <v>76</v>
+      <c r="V59" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="60" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="5" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -2267,7 +2200,7 @@
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
       <c r="G60" s="5" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="H60" s="3"/>
       <c r="I60" s="3"/>
@@ -2280,8 +2213,8 @@
       <c r="P60" s="3"/>
       <c r="Q60" s="3"/>
       <c r="R60" s="3"/>
-      <c r="V60" s="7" t="s">
-        <v>78</v>
+      <c r="V60" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="61" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -2289,10 +2222,10 @@
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
       <c r="D61" s="5" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
@@ -2307,17 +2240,17 @@
       <c r="P61" s="3"/>
       <c r="Q61" s="3"/>
       <c r="R61" s="3"/>
-      <c r="V61" s="7" t="s">
-        <v>79</v>
+      <c r="V61" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="62" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="5" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="B62" s="5"/>
       <c r="C62" s="5" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
@@ -2334,13 +2267,13 @@
       <c r="P62" s="3"/>
       <c r="Q62" s="3"/>
       <c r="R62" s="3"/>
-      <c r="V62" s="7" t="s">
-        <v>81</v>
+      <c r="V62" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="63" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="5" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -2359,19 +2292,19 @@
       <c r="P63" s="3"/>
       <c r="Q63" s="3"/>
       <c r="R63" s="3"/>
-      <c r="V63" s="7" t="s">
-        <v>82</v>
+      <c r="V63" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="64" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="10"/>
+      <c r="A64" s="8"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
-      <c r="G64" s="10" t="s">
-        <v>83</v>
+      <c r="G64" s="8" t="s">
+        <v>63</v>
       </c>
       <c r="H64" s="4"/>
       <c r="I64" s="4"/>
@@ -2384,6 +2317,9 @@
       <c r="P64" s="4"/>
       <c r="Q64" s="4"/>
       <c r="R64" s="4"/>
+      <c r="V64" s="2" t="s">
+        <v>65</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
